--- a/Login_Test_Cases.xlsx
+++ b/Login_Test_Cases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
   <si>
     <t>Column Name</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Browser : chrome  Screen Resolution :1366*768           Device : Desktop      OS: Windows</t>
+  </si>
+  <si>
+    <t>UI Misalignment</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -466,6 +469,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -507,34 +540,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -905,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -921,15 +927,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -956,82 +962,82 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="15" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C18" s="11"/>
@@ -1063,91 +1069,91 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="26" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1174,71 +1180,82 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="39" t="s">
+      <c r="G35" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
     </row>
     <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
     </row>
     <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1265,106 +1282,120 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="45" t="s">
         <v>49</v>
       </c>
       <c r="C46" s="21"/>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="F46" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="G46" s="27" t="s">
+      <c r="G46" s="37" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="33"/>
-      <c r="B47" s="36"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
     </row>
     <row r="48" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="33"/>
-      <c r="B48" s="36"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="46"/>
       <c r="C48" s="22"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
     </row>
     <row r="49" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="33"/>
-      <c r="B49" s="36"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="46"/>
       <c r="C49" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
     </row>
     <row r="50" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="33"/>
-      <c r="B50" s="36"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="28"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="38"/>
     </row>
     <row r="51" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="33"/>
-      <c r="B51" s="36"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="28"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="38"/>
     </row>
     <row r="52" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="33"/>
-      <c r="B52" s="36"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="46"/>
       <c r="C52" s="19"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="28"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="38"/>
     </row>
     <row r="53" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="33"/>
-      <c r="B53" s="36"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="46"/>
       <c r="C53" s="19"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="28"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="38"/>
     </row>
     <row r="54" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="34"/>
-      <c r="B54" s="37"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="47"/>
       <c r="C54" s="20"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="29"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="D46:D54"/>
+    <mergeCell ref="E46:E54"/>
+    <mergeCell ref="G46:G54"/>
+    <mergeCell ref="F46:F54"/>
+    <mergeCell ref="A46:A54"/>
+    <mergeCell ref="B46:B54"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="G8:G12"/>
     <mergeCell ref="A28:G29"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="G35:G39"/>
@@ -1379,19 +1410,6 @@
     <mergeCell ref="E21:E25"/>
     <mergeCell ref="F21:F25"/>
     <mergeCell ref="G21:G25"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="D46:D54"/>
-    <mergeCell ref="E46:E54"/>
-    <mergeCell ref="G46:G54"/>
-    <mergeCell ref="F46:F54"/>
-    <mergeCell ref="A46:A54"/>
-    <mergeCell ref="B46:B54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
